--- a/resources/templates/template.xlsx
+++ b/resources/templates/template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\LARIS DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\NIA\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612277A8-3F25-4C29-BC5D-C061BCB93295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FFFB2E-7EAC-4B18-A168-B5483EB62902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="24">
   <si>
     <t>D A I L Y    T I M E    R E C O R D</t>
   </si>
@@ -116,60 +116,13 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">Falsification of time records will render the offending officers or employee liable to summary removal from the service and criminal prosecution. </t>
     </r>
   </si>
   <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>07</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
     <t>N/A</t>
-  </si>
-  <si>
-    <t>Sunday</t>
-  </si>
-  <si>
-    <t>Monday</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>Wednesday</t>
-  </si>
-  <si>
-    <t>Thursday</t>
-  </si>
-  <si>
-    <t>Friday</t>
-  </si>
-  <si>
-    <t>Saturday</t>
   </si>
 </sst>
 </file>
@@ -191,56 +144,66 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <i/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="24"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -248,6 +211,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="9"/>
@@ -792,12 +756,27 @@
     <xf numFmtId="18" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="18" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -806,21 +785,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2076,7 +2040,7 @@
   <dimension ref="A7:U46"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="67" zoomScaleNormal="60" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2197,34 +2161,28 @@
     <row r="12" spans="1:19" s="8" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12" s="30"/>
-      <c r="C12" s="70" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="70"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
       <c r="E12" s="31"/>
       <c r="F12" s="31"/>
       <c r="G12" s="31"/>
       <c r="H12" s="31"/>
       <c r="I12" s="31"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="72"/>
       <c r="L12" s="32"/>
       <c r="M12" s="32"/>
       <c r="N12" s="32"/>
       <c r="O12" s="32"/>
-      <c r="P12" s="68"/>
-      <c r="Q12" s="69"/>
-      <c r="R12" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="P12" s="73"/>
+      <c r="Q12" s="74"/>
+      <c r="R12" s="33"/>
     </row>
     <row r="13" spans="1:19" s="8" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="25"/>
-      <c r="C13" s="71" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="71"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
@@ -2238,17 +2196,13 @@
       <c r="O13" s="19"/>
       <c r="P13" s="46"/>
       <c r="Q13" s="47"/>
-      <c r="R13" s="20" t="s">
-        <v>24</v>
-      </c>
+      <c r="R13" s="20"/>
     </row>
     <row r="14" spans="1:19" s="8" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="25"/>
-      <c r="C14" s="71" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="71"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
@@ -2262,17 +2216,13 @@
       <c r="O14" s="19"/>
       <c r="P14" s="46"/>
       <c r="Q14" s="47"/>
-      <c r="R14" s="20" t="s">
-        <v>25</v>
-      </c>
+      <c r="R14" s="20"/>
     </row>
     <row r="15" spans="1:19" s="8" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="25"/>
-      <c r="C15" s="71" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="71"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
@@ -2286,17 +2236,13 @@
       <c r="O15" s="19"/>
       <c r="P15" s="46"/>
       <c r="Q15" s="47"/>
-      <c r="R15" s="20" t="s">
-        <v>26</v>
-      </c>
+      <c r="R15" s="20"/>
     </row>
     <row r="16" spans="1:19" s="8" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="25"/>
-      <c r="C16" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="71"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
@@ -2310,17 +2256,13 @@
       <c r="O16" s="19"/>
       <c r="P16" s="46"/>
       <c r="Q16" s="47"/>
-      <c r="R16" s="20" t="s">
-        <v>27</v>
-      </c>
+      <c r="R16" s="20"/>
     </row>
     <row r="17" spans="1:21" s="8" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="25"/>
-      <c r="C17" s="71" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="71"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
@@ -2334,17 +2276,13 @@
       <c r="O17" s="19"/>
       <c r="P17" s="46"/>
       <c r="Q17" s="47"/>
-      <c r="R17" s="20" t="s">
-        <v>28</v>
-      </c>
+      <c r="R17" s="20"/>
     </row>
     <row r="18" spans="1:21" s="8" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="34"/>
-      <c r="C18" s="72" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="72"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
       <c r="E18" s="35"/>
       <c r="F18" s="35"/>
       <c r="G18" s="35"/>
@@ -2356,19 +2294,15 @@
       <c r="M18" s="36"/>
       <c r="N18" s="36"/>
       <c r="O18" s="36"/>
-      <c r="P18" s="65"/>
-      <c r="Q18" s="66"/>
-      <c r="R18" s="37" t="s">
-        <v>29</v>
-      </c>
+      <c r="P18" s="69"/>
+      <c r="Q18" s="70"/>
+      <c r="R18" s="37"/>
     </row>
     <row r="19" spans="1:21" s="8" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="34"/>
-      <c r="C19" s="72" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="72"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
       <c r="E19" s="35"/>
       <c r="F19" s="35"/>
       <c r="G19" s="35"/>
@@ -2380,19 +2314,15 @@
       <c r="M19" s="36"/>
       <c r="N19" s="36"/>
       <c r="O19" s="36"/>
-      <c r="P19" s="65"/>
-      <c r="Q19" s="66"/>
-      <c r="R19" s="37" t="s">
-        <v>30</v>
-      </c>
+      <c r="P19" s="69"/>
+      <c r="Q19" s="70"/>
+      <c r="R19" s="37"/>
     </row>
     <row r="20" spans="1:21" s="8" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="25"/>
-      <c r="C20" s="71" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="71"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
@@ -2406,17 +2336,13 @@
       <c r="O20" s="19"/>
       <c r="P20" s="46"/>
       <c r="Q20" s="47"/>
-      <c r="R20" s="20" t="s">
-        <v>31</v>
-      </c>
+      <c r="R20" s="20"/>
     </row>
     <row r="21" spans="1:21" s="8" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="25"/>
-      <c r="C21" s="71" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="71"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
@@ -2430,17 +2356,13 @@
       <c r="O21" s="19"/>
       <c r="P21" s="46"/>
       <c r="Q21" s="47"/>
-      <c r="R21" s="20">
-        <v>10</v>
-      </c>
+      <c r="R21" s="20"/>
     </row>
     <row r="22" spans="1:21" s="8" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="25"/>
-      <c r="C22" s="71" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="71"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
       <c r="E22" s="18"/>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
@@ -2454,17 +2376,13 @@
       <c r="O22" s="19"/>
       <c r="P22" s="46"/>
       <c r="Q22" s="47"/>
-      <c r="R22" s="20">
-        <v>11</v>
-      </c>
+      <c r="R22" s="20"/>
     </row>
     <row r="23" spans="1:21" s="8" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="25"/>
-      <c r="C23" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="71"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
       <c r="E23" s="18"/>
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
@@ -2478,17 +2396,13 @@
       <c r="O23" s="19"/>
       <c r="P23" s="46"/>
       <c r="Q23" s="47"/>
-      <c r="R23" s="20">
-        <v>12</v>
-      </c>
+      <c r="R23" s="20"/>
     </row>
     <row r="24" spans="1:21" s="8" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="25"/>
-      <c r="C24" s="71" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="71"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
@@ -2502,17 +2416,13 @@
       <c r="O24" s="19"/>
       <c r="P24" s="46"/>
       <c r="Q24" s="47"/>
-      <c r="R24" s="20">
-        <v>13</v>
-      </c>
+      <c r="R24" s="20"/>
     </row>
     <row r="25" spans="1:21" s="8" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="34"/>
-      <c r="C25" s="72" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="72"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="68"/>
       <c r="E25" s="35"/>
       <c r="F25" s="35"/>
       <c r="G25" s="35"/>
@@ -2524,19 +2434,15 @@
       <c r="M25" s="36"/>
       <c r="N25" s="36"/>
       <c r="O25" s="36"/>
-      <c r="P25" s="65"/>
-      <c r="Q25" s="66"/>
-      <c r="R25" s="37">
-        <v>14</v>
-      </c>
+      <c r="P25" s="69"/>
+      <c r="Q25" s="70"/>
+      <c r="R25" s="37"/>
     </row>
     <row r="26" spans="1:21" s="8" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="34"/>
-      <c r="C26" s="72" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" s="72"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="68"/>
       <c r="E26" s="35"/>
       <c r="F26" s="35"/>
       <c r="G26" s="35"/>
@@ -2548,17 +2454,15 @@
       <c r="M26" s="36"/>
       <c r="N26" s="36"/>
       <c r="O26" s="36"/>
-      <c r="P26" s="65"/>
-      <c r="Q26" s="66"/>
-      <c r="R26" s="37">
-        <v>15</v>
-      </c>
+      <c r="P26" s="69"/>
+      <c r="Q26" s="70"/>
+      <c r="R26" s="37"/>
     </row>
     <row r="27" spans="1:21" s="8" customFormat="1" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
       <c r="B27" s="26"/>
-      <c r="C27" s="73"/>
-      <c r="D27" s="74"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="66"/>
       <c r="E27" s="21"/>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
@@ -2658,7 +2562,7 @@
       <c r="I34" s="27"/>
       <c r="J34" s="3"/>
       <c r="K34" s="38" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="L34" s="38"/>
       <c r="M34" s="38"/>

--- a/resources/templates/template.xlsx
+++ b/resources/templates/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\NIA\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FFFB2E-7EAC-4B18-A168-B5483EB62902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6D23D4-2323-4CFC-A4FF-B47B793D14B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -132,7 +132,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -194,19 +194,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
       <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -223,14 +210,20 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF000000"/>
       <name val="Cambria"/>
       <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Cambria"/>
       <family val="1"/>
     </font>
@@ -562,7 +555,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -651,39 +644,72 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="18" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="18" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="18" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="18" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="18" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -696,65 +722,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -762,29 +731,59 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1246,61 +1245,61 @@
   </cols>
   <sheetData>
     <row r="7" spans="1:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="52"/>
-      <c r="R7" s="52"/>
-      <c r="S7" s="52"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="36"/>
     </row>
     <row r="8" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
     </row>
     <row r="9" spans="1:19" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
     </row>
@@ -1310,19 +1309,19 @@
       <c r="B11" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="56" t="s">
+      <c r="C11" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="57" t="s">
+      <c r="D11" s="41"/>
+      <c r="E11" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="59"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="42"/>
       <c r="L11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1335,10 +1334,10 @@
       <c r="O11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P11" s="57" t="s">
+      <c r="P11" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="Q11" s="58"/>
+      <c r="Q11" s="35"/>
       <c r="R11" s="28" t="s">
         <v>11</v>
       </c>
@@ -1346,21 +1345,21 @@
     <row r="12" spans="1:19" s="8" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12" s="24"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
       <c r="L12" s="16"/>
       <c r="M12" s="16"/>
       <c r="N12" s="16"/>
       <c r="O12" s="16"/>
-      <c r="P12" s="60"/>
-      <c r="Q12" s="61"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="44"/>
       <c r="R12" s="17"/>
     </row>
     <row r="13" spans="1:19" s="8" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1373,14 +1372,14 @@
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
       <c r="I13" s="19"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
       <c r="L13" s="19"/>
       <c r="M13" s="19"/>
       <c r="N13" s="19"/>
       <c r="O13" s="19"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="47"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="31"/>
       <c r="R13" s="20"/>
     </row>
     <row r="14" spans="1:19" s="8" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1393,14 +1392,14 @@
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
       <c r="I14" s="19"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
       <c r="L14" s="19"/>
       <c r="M14" s="19"/>
       <c r="N14" s="19"/>
       <c r="O14" s="19"/>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="47"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="31"/>
       <c r="R14" s="20"/>
     </row>
     <row r="15" spans="1:19" s="8" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1413,14 +1412,14 @@
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
       <c r="I15" s="19"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
       <c r="L15" s="19"/>
       <c r="M15" s="19"/>
       <c r="N15" s="19"/>
       <c r="O15" s="19"/>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="47"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="31"/>
       <c r="R15" s="20"/>
     </row>
     <row r="16" spans="1:19" s="8" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1433,14 +1432,14 @@
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
       <c r="I16" s="19"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
       <c r="L16" s="19"/>
       <c r="M16" s="19"/>
       <c r="N16" s="19"/>
       <c r="O16" s="19"/>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="47"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="31"/>
       <c r="R16" s="20"/>
     </row>
     <row r="17" spans="1:21" s="8" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1453,14 +1452,14 @@
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
       <c r="I17" s="19"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
       <c r="L17" s="19"/>
       <c r="M17" s="19"/>
       <c r="N17" s="19"/>
       <c r="O17" s="19"/>
-      <c r="P17" s="46"/>
-      <c r="Q17" s="47"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="31"/>
       <c r="R17" s="20"/>
     </row>
     <row r="18" spans="1:21" s="8" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1473,14 +1472,14 @@
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
       <c r="I18" s="19"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
       <c r="L18" s="19"/>
       <c r="M18" s="19"/>
       <c r="N18" s="19"/>
       <c r="O18" s="19"/>
-      <c r="P18" s="46"/>
-      <c r="Q18" s="47"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="31"/>
       <c r="R18" s="20"/>
     </row>
     <row r="19" spans="1:21" s="8" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1493,14 +1492,14 @@
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
       <c r="I19" s="19"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
       <c r="L19" s="19"/>
       <c r="M19" s="19"/>
       <c r="N19" s="19"/>
       <c r="O19" s="19"/>
-      <c r="P19" s="46"/>
-      <c r="Q19" s="47"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="31"/>
       <c r="R19" s="20"/>
     </row>
     <row r="20" spans="1:21" s="8" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1513,14 +1512,14 @@
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
       <c r="I20" s="19"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
       <c r="L20" s="19"/>
       <c r="M20" s="19"/>
       <c r="N20" s="19"/>
       <c r="O20" s="19"/>
-      <c r="P20" s="46"/>
-      <c r="Q20" s="47"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="31"/>
       <c r="R20" s="20"/>
     </row>
     <row r="21" spans="1:21" s="8" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1533,14 +1532,14 @@
       <c r="G21" s="18"/>
       <c r="H21" s="18"/>
       <c r="I21" s="19"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
       <c r="L21" s="19"/>
       <c r="M21" s="19"/>
       <c r="N21" s="19"/>
       <c r="O21" s="19"/>
-      <c r="P21" s="46"/>
-      <c r="Q21" s="47"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="31"/>
       <c r="R21" s="20"/>
     </row>
     <row r="22" spans="1:21" s="8" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1553,14 +1552,14 @@
       <c r="G22" s="18"/>
       <c r="H22" s="18"/>
       <c r="I22" s="19"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
       <c r="L22" s="19"/>
       <c r="M22" s="19"/>
       <c r="N22" s="19"/>
       <c r="O22" s="19"/>
-      <c r="P22" s="46"/>
-      <c r="Q22" s="47"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="31"/>
       <c r="R22" s="20"/>
     </row>
     <row r="23" spans="1:21" s="8" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1573,14 +1572,14 @@
       <c r="G23" s="18"/>
       <c r="H23" s="18"/>
       <c r="I23" s="18"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
       <c r="L23" s="19"/>
       <c r="M23" s="19"/>
       <c r="N23" s="19"/>
       <c r="O23" s="19"/>
-      <c r="P23" s="46"/>
-      <c r="Q23" s="47"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="31"/>
       <c r="R23" s="20"/>
     </row>
     <row r="24" spans="1:21" s="8" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1593,14 +1592,14 @@
       <c r="G24" s="18"/>
       <c r="H24" s="18"/>
       <c r="I24" s="19"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
       <c r="L24" s="19"/>
       <c r="M24" s="19"/>
       <c r="N24" s="19"/>
       <c r="O24" s="19"/>
-      <c r="P24" s="46"/>
-      <c r="Q24" s="47"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="31"/>
       <c r="R24" s="20"/>
     </row>
     <row r="25" spans="1:21" s="8" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1613,14 +1612,14 @@
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
       <c r="L25" s="19"/>
       <c r="M25" s="19"/>
       <c r="N25" s="19"/>
       <c r="O25" s="19"/>
-      <c r="P25" s="46"/>
-      <c r="Q25" s="47"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="31"/>
       <c r="R25" s="20"/>
     </row>
     <row r="26" spans="1:21" s="8" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1633,105 +1632,105 @@
       <c r="G26" s="18"/>
       <c r="H26" s="18"/>
       <c r="I26" s="19"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
       <c r="L26" s="19"/>
       <c r="M26" s="19"/>
       <c r="N26" s="19"/>
       <c r="O26" s="19"/>
-      <c r="P26" s="46"/>
-      <c r="Q26" s="47"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="31"/>
       <c r="R26" s="20"/>
     </row>
     <row r="27" spans="1:21" s="8" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="26"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
       <c r="E27" s="21"/>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
       <c r="I27" s="22"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="50"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="48"/>
       <c r="L27" s="22"/>
       <c r="M27" s="22"/>
       <c r="N27" s="22"/>
       <c r="O27" s="22"/>
-      <c r="P27" s="62"/>
-      <c r="Q27" s="63"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="33"/>
       <c r="R27" s="23"/>
     </row>
     <row r="29" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
-      <c r="B29" s="43" t="s">
+      <c r="B29" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="43"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
       <c r="J29" s="10"/>
-      <c r="K29" s="42" t="s">
+      <c r="K29" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="L29" s="42"/>
-      <c r="M29" s="42"/>
-      <c r="N29" s="42"/>
-      <c r="O29" s="42"/>
-      <c r="P29" s="42"/>
-      <c r="Q29" s="42"/>
-      <c r="R29" s="42"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="53"/>
+      <c r="O29" s="53"/>
+      <c r="P29" s="53"/>
+      <c r="Q29" s="53"/>
+      <c r="R29" s="53"/>
       <c r="S29" s="9"/>
       <c r="T29" s="9"/>
       <c r="U29" s="9"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="43"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="54"/>
       <c r="J30" s="10"/>
-      <c r="K30" s="42"/>
-      <c r="L30" s="42"/>
-      <c r="M30" s="42"/>
-      <c r="N30" s="42"/>
-      <c r="O30" s="42"/>
-      <c r="P30" s="42"/>
-      <c r="Q30" s="42"/>
-      <c r="R30" s="42"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="53"/>
+      <c r="O30" s="53"/>
+      <c r="P30" s="53"/>
+      <c r="Q30" s="53"/>
+      <c r="R30" s="53"/>
       <c r="S30" s="9"/>
       <c r="T30" s="9"/>
       <c r="U30" s="9"/>
     </row>
     <row r="31" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="43"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="54"/>
       <c r="J31" s="10"/>
-      <c r="K31" s="42"/>
-      <c r="L31" s="42"/>
-      <c r="M31" s="42"/>
-      <c r="N31" s="42"/>
-      <c r="O31" s="42"/>
-      <c r="P31" s="42"/>
-      <c r="Q31" s="42"/>
-      <c r="R31" s="42"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="53"/>
+      <c r="O31" s="53"/>
+      <c r="P31" s="53"/>
+      <c r="Q31" s="53"/>
+      <c r="R31" s="53"/>
       <c r="S31" s="9"/>
       <c r="T31" s="9"/>
       <c r="U31" s="9"/>
@@ -1739,46 +1738,46 @@
     <row r="34" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="27"/>
       <c r="C34" s="27"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
       <c r="H34" s="27"/>
       <c r="I34" s="27"/>
       <c r="J34" s="3"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="38"/>
-      <c r="N34" s="38"/>
-      <c r="O34" s="38"/>
-      <c r="P34" s="38"/>
-      <c r="Q34" s="38"/>
-      <c r="R34" s="38"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="47"/>
+      <c r="M34" s="47"/>
+      <c r="N34" s="47"/>
+      <c r="O34" s="47"/>
+      <c r="P34" s="47"/>
+      <c r="Q34" s="47"/>
+      <c r="R34" s="47"/>
       <c r="S34" s="11"/>
       <c r="T34" s="11"/>
     </row>
     <row r="35" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
-      <c r="D35" s="48" t="s">
+      <c r="D35" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="E35" s="48"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="48"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="2"/>
-      <c r="K35" s="39" t="s">
+      <c r="K35" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="L35" s="39"/>
-      <c r="M35" s="39"/>
-      <c r="N35" s="39"/>
-      <c r="O35" s="39"/>
-      <c r="P35" s="39"/>
-      <c r="Q35" s="39"/>
-      <c r="R35" s="39"/>
+      <c r="L35" s="51"/>
+      <c r="M35" s="51"/>
+      <c r="N35" s="51"/>
+      <c r="O35" s="51"/>
+      <c r="P35" s="51"/>
+      <c r="Q35" s="51"/>
+      <c r="R35" s="51"/>
       <c r="S35" s="4"/>
       <c r="T35" s="4"/>
     </row>
@@ -1834,16 +1833,16 @@
       <c r="H38" s="13"/>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
-      <c r="K38" s="42" t="s">
+      <c r="K38" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="L38" s="42"/>
-      <c r="M38" s="42"/>
-      <c r="N38" s="42"/>
-      <c r="O38" s="42"/>
-      <c r="P38" s="42"/>
-      <c r="Q38" s="42"/>
-      <c r="R38" s="42"/>
+      <c r="L38" s="53"/>
+      <c r="M38" s="53"/>
+      <c r="N38" s="53"/>
+      <c r="O38" s="53"/>
+      <c r="P38" s="53"/>
+      <c r="Q38" s="53"/>
+      <c r="R38" s="53"/>
     </row>
     <row r="39" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
@@ -1854,131 +1853,131 @@
       <c r="F39" s="13"/>
       <c r="G39" s="13"/>
       <c r="H39" s="13"/>
-      <c r="K39" s="42"/>
-      <c r="L39" s="42"/>
-      <c r="M39" s="42"/>
-      <c r="N39" s="42"/>
-      <c r="O39" s="42"/>
-      <c r="P39" s="42"/>
-      <c r="Q39" s="42"/>
-      <c r="R39" s="42"/>
+      <c r="K39" s="53"/>
+      <c r="L39" s="53"/>
+      <c r="M39" s="53"/>
+      <c r="N39" s="53"/>
+      <c r="O39" s="53"/>
+      <c r="P39" s="53"/>
+      <c r="Q39" s="53"/>
+      <c r="R39" s="53"/>
     </row>
     <row r="42" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="38" t="s">
+      <c r="B42" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C42" s="38"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="38"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="47"/>
       <c r="J42" s="12"/>
-      <c r="K42" s="38" t="s">
+      <c r="K42" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="L42" s="38"/>
-      <c r="M42" s="38"/>
-      <c r="N42" s="38"/>
-      <c r="O42" s="38"/>
-      <c r="P42" s="38"/>
-      <c r="Q42" s="38"/>
-      <c r="R42" s="38"/>
+      <c r="L42" s="47"/>
+      <c r="M42" s="47"/>
+      <c r="N42" s="47"/>
+      <c r="O42" s="47"/>
+      <c r="P42" s="47"/>
+      <c r="Q42" s="47"/>
+      <c r="R42" s="47"/>
     </row>
     <row r="43" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="39" t="s">
+      <c r="B43" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="C43" s="39"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="39"/>
-      <c r="F43" s="39"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="39"/>
-      <c r="I43" s="39"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="51"/>
+      <c r="F43" s="51"/>
+      <c r="G43" s="51"/>
+      <c r="H43" s="51"/>
+      <c r="I43" s="51"/>
       <c r="J43" s="2"/>
-      <c r="K43" s="39" t="s">
+      <c r="K43" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="L43" s="39"/>
-      <c r="M43" s="39"/>
-      <c r="N43" s="39"/>
-      <c r="O43" s="39"/>
-      <c r="P43" s="39"/>
-      <c r="Q43" s="39"/>
-      <c r="R43" s="39"/>
+      <c r="L43" s="51"/>
+      <c r="M43" s="51"/>
+      <c r="N43" s="51"/>
+      <c r="O43" s="51"/>
+      <c r="P43" s="51"/>
+      <c r="Q43" s="51"/>
+      <c r="R43" s="51"/>
     </row>
     <row r="45" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="41" t="s">
+      <c r="A45" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="B45" s="41"/>
-      <c r="C45" s="41"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="41"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="41"/>
-      <c r="H45" s="41"/>
-      <c r="I45" s="41"/>
-      <c r="J45" s="41"/>
-      <c r="K45" s="41"/>
-      <c r="L45" s="41"/>
-      <c r="M45" s="41"/>
-      <c r="N45" s="41"/>
-      <c r="O45" s="41"/>
-      <c r="P45" s="41"/>
-      <c r="Q45" s="41"/>
-      <c r="R45" s="41"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="52"/>
+      <c r="E45" s="52"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="52"/>
+      <c r="H45" s="52"/>
+      <c r="I45" s="52"/>
+      <c r="J45" s="52"/>
+      <c r="K45" s="52"/>
+      <c r="L45" s="52"/>
+      <c r="M45" s="52"/>
+      <c r="N45" s="52"/>
+      <c r="O45" s="52"/>
+      <c r="P45" s="52"/>
+      <c r="Q45" s="52"/>
+      <c r="R45" s="52"/>
     </row>
     <row r="46" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="41"/>
-      <c r="B46" s="41"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="41"/>
-      <c r="E46" s="41"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="41"/>
-      <c r="H46" s="41"/>
-      <c r="I46" s="41"/>
-      <c r="J46" s="41"/>
-      <c r="K46" s="41"/>
-      <c r="L46" s="41"/>
-      <c r="M46" s="41"/>
-      <c r="N46" s="41"/>
-      <c r="O46" s="41"/>
-      <c r="P46" s="41"/>
-      <c r="Q46" s="41"/>
-      <c r="R46" s="41"/>
+      <c r="A46" s="52"/>
+      <c r="B46" s="52"/>
+      <c r="C46" s="52"/>
+      <c r="D46" s="52"/>
+      <c r="E46" s="52"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="52"/>
+      <c r="H46" s="52"/>
+      <c r="I46" s="52"/>
+      <c r="J46" s="52"/>
+      <c r="K46" s="52"/>
+      <c r="L46" s="52"/>
+      <c r="M46" s="52"/>
+      <c r="N46" s="52"/>
+      <c r="O46" s="52"/>
+      <c r="P46" s="52"/>
+      <c r="Q46" s="52"/>
+      <c r="R46" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="A7:S7"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D8:L8"/>
-    <mergeCell ref="D9:L9"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="E11:K11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="K42:R42"/>
+    <mergeCell ref="K43:R43"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="A45:R46"/>
+    <mergeCell ref="B42:I42"/>
+    <mergeCell ref="B43:I43"/>
+    <mergeCell ref="K29:R31"/>
+    <mergeCell ref="B29:I31"/>
+    <mergeCell ref="K38:R39"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="K35:R35"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C17:D17"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C13:D13"/>
@@ -1995,34 +1994,34 @@
     <mergeCell ref="J23:K23"/>
     <mergeCell ref="D34:G34"/>
     <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="K42:R42"/>
-    <mergeCell ref="K43:R43"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="A45:R46"/>
-    <mergeCell ref="B42:I42"/>
-    <mergeCell ref="B43:I43"/>
-    <mergeCell ref="K29:R31"/>
-    <mergeCell ref="B29:I31"/>
-    <mergeCell ref="K38:R39"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="K35:R35"/>
-    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="A7:S7"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D8:L8"/>
+    <mergeCell ref="D9:L9"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="E11:K11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P19:Q19"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="66" orientation="landscape" r:id="rId1"/>
@@ -2040,7 +2039,7 @@
   <dimension ref="A7:U46"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="67" zoomScaleNormal="60" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="C27" sqref="C27:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2061,61 +2060,61 @@
   </cols>
   <sheetData>
     <row r="7" spans="1:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="52"/>
-      <c r="R7" s="52"/>
-      <c r="S7" s="52"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="36"/>
     </row>
     <row r="8" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
     </row>
     <row r="9" spans="1:19" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
     </row>
@@ -2125,19 +2124,19 @@
       <c r="B11" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="57" t="s">
+      <c r="C11" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="59"/>
-      <c r="E11" s="57" t="s">
+      <c r="D11" s="42"/>
+      <c r="E11" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="59"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="42"/>
       <c r="L11" s="1" t="s">
         <v>6</v>
       </c>
@@ -2150,403 +2149,403 @@
       <c r="O11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P11" s="57" t="s">
+      <c r="P11" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="Q11" s="58"/>
+      <c r="Q11" s="35"/>
       <c r="R11" s="28" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="8" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="72"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="73"/>
-      <c r="Q12" s="74"/>
-      <c r="R12" s="33"/>
+    <row r="12" spans="1:19" s="68" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="60"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="64"/>
+      <c r="P12" s="65"/>
+      <c r="Q12" s="66"/>
+      <c r="R12" s="67"/>
     </row>
     <row r="13" spans="1:19" s="8" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="25"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="56"/>
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
       <c r="I13" s="19"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
       <c r="L13" s="19"/>
       <c r="M13" s="19"/>
       <c r="N13" s="19"/>
       <c r="O13" s="19"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="47"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="31"/>
       <c r="R13" s="20"/>
     </row>
     <row r="14" spans="1:19" s="8" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="25"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="56"/>
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
       <c r="I14" s="19"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
       <c r="L14" s="19"/>
       <c r="M14" s="19"/>
       <c r="N14" s="19"/>
       <c r="O14" s="19"/>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="47"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="31"/>
       <c r="R14" s="20"/>
     </row>
     <row r="15" spans="1:19" s="8" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="25"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="56"/>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
       <c r="I15" s="19"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
       <c r="L15" s="19"/>
       <c r="M15" s="19"/>
       <c r="N15" s="19"/>
       <c r="O15" s="19"/>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="47"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="31"/>
       <c r="R15" s="20"/>
     </row>
     <row r="16" spans="1:19" s="8" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="25"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="56"/>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
       <c r="I16" s="19"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
       <c r="L16" s="19"/>
       <c r="M16" s="19"/>
       <c r="N16" s="19"/>
       <c r="O16" s="19"/>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="47"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="31"/>
       <c r="R16" s="20"/>
     </row>
     <row r="17" spans="1:21" s="8" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="25"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="56"/>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
       <c r="I17" s="19"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
       <c r="L17" s="19"/>
       <c r="M17" s="19"/>
       <c r="N17" s="19"/>
       <c r="O17" s="19"/>
-      <c r="P17" s="46"/>
-      <c r="Q17" s="47"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="31"/>
       <c r="R17" s="20"/>
     </row>
-    <row r="18" spans="1:21" s="8" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="64"/>
-      <c r="K18" s="64"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="69"/>
-      <c r="Q18" s="70"/>
-      <c r="R18" s="37"/>
-    </row>
-    <row r="19" spans="1:21" s="8" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="69"/>
-      <c r="Q19" s="70"/>
-      <c r="R19" s="37"/>
+    <row r="18" spans="1:21" s="68" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="60"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="73"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="72"/>
+      <c r="N18" s="72"/>
+      <c r="O18" s="72"/>
+      <c r="P18" s="74"/>
+      <c r="Q18" s="75"/>
+      <c r="R18" s="76"/>
+    </row>
+    <row r="19" spans="1:21" s="68" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="60"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="73"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="72"/>
+      <c r="N19" s="72"/>
+      <c r="O19" s="72"/>
+      <c r="P19" s="74"/>
+      <c r="Q19" s="75"/>
+      <c r="R19" s="76"/>
     </row>
     <row r="20" spans="1:21" s="8" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="25"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="56"/>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
       <c r="I20" s="19"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
       <c r="L20" s="19"/>
       <c r="M20" s="19"/>
       <c r="N20" s="19"/>
       <c r="O20" s="19"/>
-      <c r="P20" s="46"/>
-      <c r="Q20" s="47"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="31"/>
       <c r="R20" s="20"/>
     </row>
     <row r="21" spans="1:21" s="8" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="25"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="56"/>
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
       <c r="H21" s="18"/>
       <c r="I21" s="19"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
       <c r="L21" s="19"/>
       <c r="M21" s="19"/>
       <c r="N21" s="19"/>
       <c r="O21" s="19"/>
-      <c r="P21" s="46"/>
-      <c r="Q21" s="47"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="31"/>
       <c r="R21" s="20"/>
     </row>
     <row r="22" spans="1:21" s="8" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="25"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="56"/>
       <c r="E22" s="18"/>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
       <c r="H22" s="18"/>
       <c r="I22" s="19"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
       <c r="L22" s="19"/>
       <c r="M22" s="19"/>
       <c r="N22" s="19"/>
       <c r="O22" s="19"/>
-      <c r="P22" s="46"/>
-      <c r="Q22" s="47"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="31"/>
       <c r="R22" s="20"/>
     </row>
     <row r="23" spans="1:21" s="8" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="25"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="56"/>
       <c r="E23" s="18"/>
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
       <c r="H23" s="18"/>
       <c r="I23" s="18"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
       <c r="L23" s="19"/>
       <c r="M23" s="19"/>
       <c r="N23" s="19"/>
       <c r="O23" s="19"/>
-      <c r="P23" s="46"/>
-      <c r="Q23" s="47"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="31"/>
       <c r="R23" s="20"/>
     </row>
     <row r="24" spans="1:21" s="8" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="25"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="56"/>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
       <c r="H24" s="18"/>
       <c r="I24" s="19"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
       <c r="L24" s="19"/>
       <c r="M24" s="19"/>
       <c r="N24" s="19"/>
       <c r="O24" s="19"/>
-      <c r="P24" s="46"/>
-      <c r="Q24" s="47"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="31"/>
       <c r="R24" s="20"/>
     </row>
-    <row r="25" spans="1:21" s="8" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="68"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="64"/>
-      <c r="K25" s="64"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="36"/>
-      <c r="O25" s="36"/>
-      <c r="P25" s="69"/>
-      <c r="Q25" s="70"/>
-      <c r="R25" s="37"/>
-    </row>
-    <row r="26" spans="1:21" s="8" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="64"/>
-      <c r="K26" s="64"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="36"/>
-      <c r="O26" s="36"/>
-      <c r="P26" s="69"/>
-      <c r="Q26" s="70"/>
-      <c r="R26" s="37"/>
+    <row r="25" spans="1:21" s="68" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="60"/>
+      <c r="B25" s="69"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="72"/>
+      <c r="M25" s="72"/>
+      <c r="N25" s="72"/>
+      <c r="O25" s="72"/>
+      <c r="P25" s="74"/>
+      <c r="Q25" s="75"/>
+      <c r="R25" s="76"/>
+    </row>
+    <row r="26" spans="1:21" s="68" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="60"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="73"/>
+      <c r="L26" s="72"/>
+      <c r="M26" s="72"/>
+      <c r="N26" s="72"/>
+      <c r="O26" s="72"/>
+      <c r="P26" s="74"/>
+      <c r="Q26" s="75"/>
+      <c r="R26" s="76"/>
     </row>
     <row r="27" spans="1:21" s="8" customFormat="1" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
       <c r="B27" s="26"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="66"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="58"/>
       <c r="E27" s="21"/>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
       <c r="I27" s="22"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="50"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="48"/>
       <c r="L27" s="22"/>
       <c r="M27" s="22"/>
       <c r="N27" s="22"/>
       <c r="O27" s="22"/>
-      <c r="P27" s="62"/>
-      <c r="Q27" s="63"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="33"/>
       <c r="R27" s="23"/>
     </row>
     <row r="29" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
-      <c r="B29" s="43" t="s">
+      <c r="B29" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="43"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
       <c r="J29" s="10"/>
-      <c r="K29" s="42" t="s">
+      <c r="K29" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="L29" s="42"/>
-      <c r="M29" s="42"/>
-      <c r="N29" s="42"/>
-      <c r="O29" s="42"/>
-      <c r="P29" s="42"/>
-      <c r="Q29" s="42"/>
-      <c r="R29" s="42"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="53"/>
+      <c r="O29" s="53"/>
+      <c r="P29" s="53"/>
+      <c r="Q29" s="53"/>
+      <c r="R29" s="53"/>
       <c r="S29" s="9"/>
       <c r="T29" s="9"/>
       <c r="U29" s="9"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="43"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="54"/>
       <c r="J30" s="10"/>
-      <c r="K30" s="42"/>
-      <c r="L30" s="42"/>
-      <c r="M30" s="42"/>
-      <c r="N30" s="42"/>
-      <c r="O30" s="42"/>
-      <c r="P30" s="42"/>
-      <c r="Q30" s="42"/>
-      <c r="R30" s="42"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="53"/>
+      <c r="O30" s="53"/>
+      <c r="P30" s="53"/>
+      <c r="Q30" s="53"/>
+      <c r="R30" s="53"/>
       <c r="S30" s="9"/>
       <c r="T30" s="9"/>
       <c r="U30" s="9"/>
     </row>
     <row r="31" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="43"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="54"/>
       <c r="J31" s="10"/>
-      <c r="K31" s="42"/>
-      <c r="L31" s="42"/>
-      <c r="M31" s="42"/>
-      <c r="N31" s="42"/>
-      <c r="O31" s="42"/>
-      <c r="P31" s="42"/>
-      <c r="Q31" s="42"/>
-      <c r="R31" s="42"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="53"/>
+      <c r="O31" s="53"/>
+      <c r="P31" s="53"/>
+      <c r="Q31" s="53"/>
+      <c r="R31" s="53"/>
       <c r="S31" s="9"/>
       <c r="T31" s="9"/>
       <c r="U31" s="9"/>
@@ -2554,48 +2553,48 @@
     <row r="34" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="27"/>
       <c r="C34" s="27"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
       <c r="H34" s="27"/>
       <c r="I34" s="27"/>
       <c r="J34" s="3"/>
-      <c r="K34" s="38" t="s">
+      <c r="K34" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="L34" s="38"/>
-      <c r="M34" s="38"/>
-      <c r="N34" s="38"/>
-      <c r="O34" s="38"/>
-      <c r="P34" s="38"/>
-      <c r="Q34" s="38"/>
-      <c r="R34" s="38"/>
+      <c r="L34" s="47"/>
+      <c r="M34" s="47"/>
+      <c r="N34" s="47"/>
+      <c r="O34" s="47"/>
+      <c r="P34" s="47"/>
+      <c r="Q34" s="47"/>
+      <c r="R34" s="47"/>
       <c r="S34" s="11"/>
       <c r="T34" s="11"/>
     </row>
     <row r="35" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
-      <c r="D35" s="48" t="s">
+      <c r="D35" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="E35" s="48"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="48"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="2"/>
-      <c r="K35" s="39" t="s">
+      <c r="K35" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="L35" s="39"/>
-      <c r="M35" s="39"/>
-      <c r="N35" s="39"/>
-      <c r="O35" s="39"/>
-      <c r="P35" s="39"/>
-      <c r="Q35" s="39"/>
-      <c r="R35" s="39"/>
+      <c r="L35" s="51"/>
+      <c r="M35" s="51"/>
+      <c r="N35" s="51"/>
+      <c r="O35" s="51"/>
+      <c r="P35" s="51"/>
+      <c r="Q35" s="51"/>
+      <c r="R35" s="51"/>
       <c r="S35" s="4"/>
       <c r="T35" s="4"/>
     </row>
@@ -2651,16 +2650,16 @@
       <c r="H38" s="13"/>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
-      <c r="K38" s="42" t="s">
+      <c r="K38" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="L38" s="42"/>
-      <c r="M38" s="42"/>
-      <c r="N38" s="42"/>
-      <c r="O38" s="42"/>
-      <c r="P38" s="42"/>
-      <c r="Q38" s="42"/>
-      <c r="R38" s="42"/>
+      <c r="L38" s="53"/>
+      <c r="M38" s="53"/>
+      <c r="N38" s="53"/>
+      <c r="O38" s="53"/>
+      <c r="P38" s="53"/>
+      <c r="Q38" s="53"/>
+      <c r="R38" s="53"/>
     </row>
     <row r="39" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
@@ -2671,131 +2670,131 @@
       <c r="F39" s="13"/>
       <c r="G39" s="13"/>
       <c r="H39" s="13"/>
-      <c r="K39" s="42"/>
-      <c r="L39" s="42"/>
-      <c r="M39" s="42"/>
-      <c r="N39" s="42"/>
-      <c r="O39" s="42"/>
-      <c r="P39" s="42"/>
-      <c r="Q39" s="42"/>
-      <c r="R39" s="42"/>
+      <c r="K39" s="53"/>
+      <c r="L39" s="53"/>
+      <c r="M39" s="53"/>
+      <c r="N39" s="53"/>
+      <c r="O39" s="53"/>
+      <c r="P39" s="53"/>
+      <c r="Q39" s="53"/>
+      <c r="R39" s="53"/>
     </row>
     <row r="42" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="38" t="s">
+      <c r="B42" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C42" s="38"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="38"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="47"/>
       <c r="J42" s="12"/>
-      <c r="K42" s="38" t="s">
+      <c r="K42" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="L42" s="38"/>
-      <c r="M42" s="38"/>
-      <c r="N42" s="38"/>
-      <c r="O42" s="38"/>
-      <c r="P42" s="38"/>
-      <c r="Q42" s="38"/>
-      <c r="R42" s="38"/>
+      <c r="L42" s="47"/>
+      <c r="M42" s="47"/>
+      <c r="N42" s="47"/>
+      <c r="O42" s="47"/>
+      <c r="P42" s="47"/>
+      <c r="Q42" s="47"/>
+      <c r="R42" s="47"/>
     </row>
     <row r="43" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="39" t="s">
+      <c r="B43" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="C43" s="39"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="39"/>
-      <c r="F43" s="39"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="39"/>
-      <c r="I43" s="39"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="51"/>
+      <c r="F43" s="51"/>
+      <c r="G43" s="51"/>
+      <c r="H43" s="51"/>
+      <c r="I43" s="51"/>
       <c r="J43" s="2"/>
-      <c r="K43" s="39" t="s">
+      <c r="K43" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="L43" s="39"/>
-      <c r="M43" s="39"/>
-      <c r="N43" s="39"/>
-      <c r="O43" s="39"/>
-      <c r="P43" s="39"/>
-      <c r="Q43" s="39"/>
-      <c r="R43" s="39"/>
+      <c r="L43" s="51"/>
+      <c r="M43" s="51"/>
+      <c r="N43" s="51"/>
+      <c r="O43" s="51"/>
+      <c r="P43" s="51"/>
+      <c r="Q43" s="51"/>
+      <c r="R43" s="51"/>
     </row>
     <row r="45" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="41" t="s">
+      <c r="A45" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="B45" s="41"/>
-      <c r="C45" s="41"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="41"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="41"/>
-      <c r="H45" s="41"/>
-      <c r="I45" s="41"/>
-      <c r="J45" s="41"/>
-      <c r="K45" s="41"/>
-      <c r="L45" s="41"/>
-      <c r="M45" s="41"/>
-      <c r="N45" s="41"/>
-      <c r="O45" s="41"/>
-      <c r="P45" s="41"/>
-      <c r="Q45" s="41"/>
-      <c r="R45" s="41"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="52"/>
+      <c r="E45" s="52"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="52"/>
+      <c r="H45" s="52"/>
+      <c r="I45" s="52"/>
+      <c r="J45" s="52"/>
+      <c r="K45" s="52"/>
+      <c r="L45" s="52"/>
+      <c r="M45" s="52"/>
+      <c r="N45" s="52"/>
+      <c r="O45" s="52"/>
+      <c r="P45" s="52"/>
+      <c r="Q45" s="52"/>
+      <c r="R45" s="52"/>
     </row>
     <row r="46" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="41"/>
-      <c r="B46" s="41"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="41"/>
-      <c r="E46" s="41"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="41"/>
-      <c r="H46" s="41"/>
-      <c r="I46" s="41"/>
-      <c r="J46" s="41"/>
-      <c r="K46" s="41"/>
-      <c r="L46" s="41"/>
-      <c r="M46" s="41"/>
-      <c r="N46" s="41"/>
-      <c r="O46" s="41"/>
-      <c r="P46" s="41"/>
-      <c r="Q46" s="41"/>
-      <c r="R46" s="41"/>
+      <c r="A46" s="52"/>
+      <c r="B46" s="52"/>
+      <c r="C46" s="52"/>
+      <c r="D46" s="52"/>
+      <c r="E46" s="52"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="52"/>
+      <c r="H46" s="52"/>
+      <c r="I46" s="52"/>
+      <c r="J46" s="52"/>
+      <c r="K46" s="52"/>
+      <c r="L46" s="52"/>
+      <c r="M46" s="52"/>
+      <c r="N46" s="52"/>
+      <c r="O46" s="52"/>
+      <c r="P46" s="52"/>
+      <c r="Q46" s="52"/>
+      <c r="R46" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="A7:S7"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D8:L8"/>
-    <mergeCell ref="D9:L9"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="E11:K11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="K42:R42"/>
+    <mergeCell ref="K43:R43"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="A45:R46"/>
+    <mergeCell ref="B42:I42"/>
+    <mergeCell ref="B43:I43"/>
+    <mergeCell ref="K29:R31"/>
+    <mergeCell ref="B29:I31"/>
+    <mergeCell ref="K38:R39"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="K35:R35"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C17:D17"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C13:D13"/>
@@ -2812,34 +2811,34 @@
     <mergeCell ref="J23:K23"/>
     <mergeCell ref="D34:G34"/>
     <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="K42:R42"/>
-    <mergeCell ref="K43:R43"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="A45:R46"/>
-    <mergeCell ref="B42:I42"/>
-    <mergeCell ref="B43:I43"/>
-    <mergeCell ref="K29:R31"/>
-    <mergeCell ref="B29:I31"/>
-    <mergeCell ref="K38:R39"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="K35:R35"/>
-    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="A7:S7"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D8:L8"/>
+    <mergeCell ref="D9:L9"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="E11:K11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P19:Q19"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="66" orientation="landscape" r:id="rId1"/>

--- a/resources/templates/template.xlsx
+++ b/resources/templates/template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\NIA\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6D23D4-2323-4CFC-A4FF-B47B793D14B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18898BD-BD29-4784-A66E-6AC395B22DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="884887" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'884887'!$A$1:$S$46</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'884887'!$A$1:$S$53</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$S$46</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
   <si>
     <t>D A I L Y    T I M E    R E C O R D</t>
   </si>
@@ -123,6 +123,10 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Principal Engineer A</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -644,146 +648,146 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="18" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="18" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="18" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="18" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -856,22 +860,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>15240</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>447235</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>174381</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 4">
+        <xdr:cNvPr id="3" name="Picture 8" descr="new_logo">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0487823A-B3FF-441A-8EF5-D0855EEFC3B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -887,8 +891,228 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="7181850" cy="1133475"/>
+          <a:off x="15240" y="0"/>
+          <a:ext cx="7030915" cy="1050681"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>22861</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>29380</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="wave-removebg-preview">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C298D53-79E4-4F45-9979-D5B815B94BC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="9334500"/>
+          <a:ext cx="14302740" cy="2010580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>729762</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>133936</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>9378</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>42496</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74CB751D-3806-479D-9B8E-855663819D11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12655062" y="10398076"/>
+          <a:ext cx="1474176" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>839665</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>132031</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>535452</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>31066</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52472B99-B5ED-414E-9BC9-30577F5E1A9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11827705" y="10396171"/>
+          <a:ext cx="633047" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>17877</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>426280</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>136427</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 9" descr="footer">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC301615-3713-4FF9-B9EF-7D509A609258}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="76200" y="10632537"/>
+          <a:ext cx="4297240" cy="644330"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>117377</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>43815</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>661182</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>324436</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 10" descr="footnote-removebg-preview">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DADCFF45-BEBB-4B25-97F3-DE125721280E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2464337" y="9523095"/>
+          <a:ext cx="10122145" cy="471121"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1223,8 +1447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A7:U46"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A5" zoomScale="85" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1245,61 +1469,61 @@
   </cols>
   <sheetData>
     <row r="7" spans="1:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
-      <c r="S7" s="36"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="54"/>
+      <c r="S7" s="54"/>
     </row>
     <row r="8" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
     </row>
     <row r="9" spans="1:19" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
     </row>
@@ -1309,19 +1533,19 @@
       <c r="B11" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="34" t="s">
+      <c r="D11" s="58"/>
+      <c r="E11" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="42"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="61"/>
       <c r="L11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1334,10 +1558,10 @@
       <c r="O11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P11" s="34" t="s">
+      <c r="P11" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="Q11" s="35"/>
+      <c r="Q11" s="60"/>
       <c r="R11" s="28" t="s">
         <v>11</v>
       </c>
@@ -1345,392 +1569,392 @@
     <row r="12" spans="1:19" s="8" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12" s="24"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
       <c r="L12" s="16"/>
       <c r="M12" s="16"/>
       <c r="N12" s="16"/>
       <c r="O12" s="16"/>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="44"/>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="63"/>
       <c r="R12" s="17"/>
     </row>
     <row r="13" spans="1:19" s="8" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="25"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
       <c r="I13" s="19"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
       <c r="L13" s="19"/>
       <c r="M13" s="19"/>
       <c r="N13" s="19"/>
       <c r="O13" s="19"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="31"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="49"/>
       <c r="R13" s="20"/>
     </row>
     <row r="14" spans="1:19" s="8" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="25"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
       <c r="I14" s="19"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
       <c r="L14" s="19"/>
       <c r="M14" s="19"/>
       <c r="N14" s="19"/>
       <c r="O14" s="19"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="31"/>
+      <c r="P14" s="48"/>
+      <c r="Q14" s="49"/>
       <c r="R14" s="20"/>
     </row>
     <row r="15" spans="1:19" s="8" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="25"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
       <c r="I15" s="19"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
       <c r="L15" s="19"/>
       <c r="M15" s="19"/>
       <c r="N15" s="19"/>
       <c r="O15" s="19"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="31"/>
+      <c r="P15" s="48"/>
+      <c r="Q15" s="49"/>
       <c r="R15" s="20"/>
     </row>
     <row r="16" spans="1:19" s="8" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="25"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
       <c r="I16" s="19"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
       <c r="L16" s="19"/>
       <c r="M16" s="19"/>
       <c r="N16" s="19"/>
       <c r="O16" s="19"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="31"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="49"/>
       <c r="R16" s="20"/>
     </row>
     <row r="17" spans="1:21" s="8" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="25"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
       <c r="I17" s="19"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
       <c r="L17" s="19"/>
       <c r="M17" s="19"/>
       <c r="N17" s="19"/>
       <c r="O17" s="19"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="31"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="49"/>
       <c r="R17" s="20"/>
     </row>
     <row r="18" spans="1:21" s="8" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="25"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
       <c r="I18" s="19"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
       <c r="L18" s="19"/>
       <c r="M18" s="19"/>
       <c r="N18" s="19"/>
       <c r="O18" s="19"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="31"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="49"/>
       <c r="R18" s="20"/>
     </row>
     <row r="19" spans="1:21" s="8" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="25"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
       <c r="I19" s="19"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
       <c r="L19" s="19"/>
       <c r="M19" s="19"/>
       <c r="N19" s="19"/>
       <c r="O19" s="19"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="31"/>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="49"/>
       <c r="R19" s="20"/>
     </row>
     <row r="20" spans="1:21" s="8" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="25"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
       <c r="I20" s="19"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
       <c r="L20" s="19"/>
       <c r="M20" s="19"/>
       <c r="N20" s="19"/>
       <c r="O20" s="19"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="31"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="49"/>
       <c r="R20" s="20"/>
     </row>
     <row r="21" spans="1:21" s="8" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="25"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
       <c r="H21" s="18"/>
       <c r="I21" s="19"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
       <c r="L21" s="19"/>
       <c r="M21" s="19"/>
       <c r="N21" s="19"/>
       <c r="O21" s="19"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="31"/>
+      <c r="P21" s="48"/>
+      <c r="Q21" s="49"/>
       <c r="R21" s="20"/>
     </row>
     <row r="22" spans="1:21" s="8" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="25"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
       <c r="E22" s="18"/>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
       <c r="H22" s="18"/>
       <c r="I22" s="19"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
       <c r="L22" s="19"/>
       <c r="M22" s="19"/>
       <c r="N22" s="19"/>
       <c r="O22" s="19"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="31"/>
+      <c r="P22" s="48"/>
+      <c r="Q22" s="49"/>
       <c r="R22" s="20"/>
     </row>
     <row r="23" spans="1:21" s="8" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="25"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
       <c r="E23" s="18"/>
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
       <c r="H23" s="18"/>
       <c r="I23" s="18"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
       <c r="L23" s="19"/>
       <c r="M23" s="19"/>
       <c r="N23" s="19"/>
       <c r="O23" s="19"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="31"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="49"/>
       <c r="R23" s="20"/>
     </row>
     <row r="24" spans="1:21" s="8" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="25"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
       <c r="H24" s="18"/>
       <c r="I24" s="19"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
       <c r="L24" s="19"/>
       <c r="M24" s="19"/>
       <c r="N24" s="19"/>
       <c r="O24" s="19"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="31"/>
+      <c r="P24" s="48"/>
+      <c r="Q24" s="49"/>
       <c r="R24" s="20"/>
     </row>
     <row r="25" spans="1:21" s="8" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="25"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
       <c r="L25" s="19"/>
       <c r="M25" s="19"/>
       <c r="N25" s="19"/>
       <c r="O25" s="19"/>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="31"/>
+      <c r="P25" s="48"/>
+      <c r="Q25" s="49"/>
       <c r="R25" s="20"/>
     </row>
     <row r="26" spans="1:21" s="8" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="25"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
       <c r="H26" s="18"/>
       <c r="I26" s="19"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
       <c r="L26" s="19"/>
       <c r="M26" s="19"/>
       <c r="N26" s="19"/>
       <c r="O26" s="19"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="31"/>
+      <c r="P26" s="48"/>
+      <c r="Q26" s="49"/>
       <c r="R26" s="20"/>
     </row>
     <row r="27" spans="1:21" s="8" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="26"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
       <c r="E27" s="21"/>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
       <c r="I27" s="22"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="48"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
       <c r="L27" s="22"/>
       <c r="M27" s="22"/>
       <c r="N27" s="22"/>
       <c r="O27" s="22"/>
-      <c r="P27" s="32"/>
-      <c r="Q27" s="33"/>
+      <c r="P27" s="64"/>
+      <c r="Q27" s="65"/>
       <c r="R27" s="23"/>
     </row>
     <row r="29" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
-      <c r="B29" s="54" t="s">
+      <c r="B29" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="54"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="45"/>
       <c r="J29" s="10"/>
-      <c r="K29" s="53" t="s">
+      <c r="K29" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="L29" s="53"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="53"/>
-      <c r="O29" s="53"/>
-      <c r="P29" s="53"/>
-      <c r="Q29" s="53"/>
-      <c r="R29" s="53"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="44"/>
+      <c r="O29" s="44"/>
+      <c r="P29" s="44"/>
+      <c r="Q29" s="44"/>
+      <c r="R29" s="44"/>
       <c r="S29" s="9"/>
       <c r="T29" s="9"/>
       <c r="U29" s="9"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
-      <c r="B30" s="54"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="54"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
       <c r="J30" s="10"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="53"/>
-      <c r="O30" s="53"/>
-      <c r="P30" s="53"/>
-      <c r="Q30" s="53"/>
-      <c r="R30" s="53"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="44"/>
+      <c r="M30" s="44"/>
+      <c r="N30" s="44"/>
+      <c r="O30" s="44"/>
+      <c r="P30" s="44"/>
+      <c r="Q30" s="44"/>
+      <c r="R30" s="44"/>
       <c r="S30" s="9"/>
       <c r="T30" s="9"/>
       <c r="U30" s="9"/>
     </row>
     <row r="31" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
-      <c r="B31" s="54"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="54"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
       <c r="J31" s="10"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="53"/>
-      <c r="O31" s="53"/>
-      <c r="P31" s="53"/>
-      <c r="Q31" s="53"/>
-      <c r="R31" s="53"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="44"/>
+      <c r="M31" s="44"/>
+      <c r="N31" s="44"/>
+      <c r="O31" s="44"/>
+      <c r="P31" s="44"/>
+      <c r="Q31" s="44"/>
+      <c r="R31" s="44"/>
       <c r="S31" s="9"/>
       <c r="T31" s="9"/>
       <c r="U31" s="9"/>
@@ -1738,21 +1962,21 @@
     <row r="34" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="27"/>
       <c r="C34" s="27"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="53"/>
       <c r="H34" s="27"/>
       <c r="I34" s="27"/>
       <c r="J34" s="3"/>
-      <c r="K34" s="47"/>
-      <c r="L34" s="47"/>
-      <c r="M34" s="47"/>
-      <c r="N34" s="47"/>
-      <c r="O34" s="47"/>
-      <c r="P34" s="47"/>
-      <c r="Q34" s="47"/>
-      <c r="R34" s="47"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="40"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="40"/>
       <c r="S34" s="11"/>
       <c r="T34" s="11"/>
     </row>
@@ -1768,16 +1992,16 @@
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="2"/>
-      <c r="K35" s="51" t="s">
+      <c r="K35" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="L35" s="51"/>
-      <c r="M35" s="51"/>
-      <c r="N35" s="51"/>
-      <c r="O35" s="51"/>
-      <c r="P35" s="51"/>
-      <c r="Q35" s="51"/>
-      <c r="R35" s="51"/>
+      <c r="L35" s="41"/>
+      <c r="M35" s="41"/>
+      <c r="N35" s="41"/>
+      <c r="O35" s="41"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="41"/>
       <c r="S35" s="4"/>
       <c r="T35" s="4"/>
     </row>
@@ -1833,16 +2057,16 @@
       <c r="H38" s="13"/>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
-      <c r="K38" s="53" t="s">
+      <c r="K38" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="L38" s="53"/>
-      <c r="M38" s="53"/>
-      <c r="N38" s="53"/>
-      <c r="O38" s="53"/>
-      <c r="P38" s="53"/>
-      <c r="Q38" s="53"/>
-      <c r="R38" s="53"/>
+      <c r="L38" s="44"/>
+      <c r="M38" s="44"/>
+      <c r="N38" s="44"/>
+      <c r="O38" s="44"/>
+      <c r="P38" s="44"/>
+      <c r="Q38" s="44"/>
+      <c r="R38" s="44"/>
     </row>
     <row r="39" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
@@ -1853,105 +2077,157 @@
       <c r="F39" s="13"/>
       <c r="G39" s="13"/>
       <c r="H39" s="13"/>
-      <c r="K39" s="53"/>
-      <c r="L39" s="53"/>
-      <c r="M39" s="53"/>
-      <c r="N39" s="53"/>
-      <c r="O39" s="53"/>
-      <c r="P39" s="53"/>
-      <c r="Q39" s="53"/>
-      <c r="R39" s="53"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="44"/>
+      <c r="M39" s="44"/>
+      <c r="N39" s="44"/>
+      <c r="O39" s="44"/>
+      <c r="P39" s="44"/>
+      <c r="Q39" s="44"/>
+      <c r="R39" s="44"/>
     </row>
     <row r="42" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="47" t="s">
+      <c r="B42" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C42" s="47"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="47"/>
-      <c r="H42" s="47"/>
-      <c r="I42" s="47"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="40"/>
+      <c r="I42" s="40"/>
       <c r="J42" s="12"/>
-      <c r="K42" s="47" t="s">
+      <c r="K42" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="L42" s="47"/>
-      <c r="M42" s="47"/>
-      <c r="N42" s="47"/>
-      <c r="O42" s="47"/>
-      <c r="P42" s="47"/>
-      <c r="Q42" s="47"/>
-      <c r="R42" s="47"/>
+      <c r="L42" s="40"/>
+      <c r="M42" s="40"/>
+      <c r="N42" s="40"/>
+      <c r="O42" s="40"/>
+      <c r="P42" s="40"/>
+      <c r="Q42" s="40"/>
+      <c r="R42" s="40"/>
     </row>
     <row r="43" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="51" t="s">
+      <c r="B43" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="51"/>
-      <c r="F43" s="51"/>
-      <c r="G43" s="51"/>
-      <c r="H43" s="51"/>
-      <c r="I43" s="51"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="41"/>
       <c r="J43" s="2"/>
-      <c r="K43" s="51" t="s">
+      <c r="K43" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="L43" s="51"/>
-      <c r="M43" s="51"/>
-      <c r="N43" s="51"/>
-      <c r="O43" s="51"/>
-      <c r="P43" s="51"/>
-      <c r="Q43" s="51"/>
-      <c r="R43" s="51"/>
+      <c r="L43" s="41"/>
+      <c r="M43" s="41"/>
+      <c r="N43" s="41"/>
+      <c r="O43" s="41"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="41"/>
     </row>
     <row r="45" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="52" t="s">
+      <c r="A45" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="B45" s="52"/>
-      <c r="C45" s="52"/>
-      <c r="D45" s="52"/>
-      <c r="E45" s="52"/>
-      <c r="F45" s="52"/>
-      <c r="G45" s="52"/>
-      <c r="H45" s="52"/>
-      <c r="I45" s="52"/>
-      <c r="J45" s="52"/>
-      <c r="K45" s="52"/>
-      <c r="L45" s="52"/>
-      <c r="M45" s="52"/>
-      <c r="N45" s="52"/>
-      <c r="O45" s="52"/>
-      <c r="P45" s="52"/>
-      <c r="Q45" s="52"/>
-      <c r="R45" s="52"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="43"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="43"/>
+      <c r="K45" s="43"/>
+      <c r="L45" s="43"/>
+      <c r="M45" s="43"/>
+      <c r="N45" s="43"/>
+      <c r="O45" s="43"/>
+      <c r="P45" s="43"/>
+      <c r="Q45" s="43"/>
+      <c r="R45" s="43"/>
     </row>
     <row r="46" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="52"/>
-      <c r="B46" s="52"/>
-      <c r="C46" s="52"/>
-      <c r="D46" s="52"/>
-      <c r="E46" s="52"/>
-      <c r="F46" s="52"/>
-      <c r="G46" s="52"/>
-      <c r="H46" s="52"/>
-      <c r="I46" s="52"/>
-      <c r="J46" s="52"/>
-      <c r="K46" s="52"/>
-      <c r="L46" s="52"/>
-      <c r="M46" s="52"/>
-      <c r="N46" s="52"/>
-      <c r="O46" s="52"/>
-      <c r="P46" s="52"/>
-      <c r="Q46" s="52"/>
-      <c r="R46" s="52"/>
+      <c r="A46" s="43"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="43"/>
+      <c r="I46" s="43"/>
+      <c r="J46" s="43"/>
+      <c r="K46" s="43"/>
+      <c r="L46" s="43"/>
+      <c r="M46" s="43"/>
+      <c r="N46" s="43"/>
+      <c r="O46" s="43"/>
+      <c r="P46" s="43"/>
+      <c r="Q46" s="43"/>
+      <c r="R46" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="68">
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="A7:S7"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D8:L8"/>
+    <mergeCell ref="D9:L9"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="E11:K11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="K34:R34"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="D35:G35"/>
     <mergeCell ref="K42:R42"/>
     <mergeCell ref="K43:R43"/>
     <mergeCell ref="J24:K24"/>
@@ -1968,58 +2244,6 @@
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="K35:R35"/>
     <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="K34:R34"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="A7:S7"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D8:L8"/>
-    <mergeCell ref="D9:L9"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="E11:K11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P19:Q19"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2038,8 +2262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A7:U46"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="67" zoomScaleNormal="60" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27:D27"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A18" zoomScale="83" zoomScaleNormal="60" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42:R42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2060,61 +2284,61 @@
   </cols>
   <sheetData>
     <row r="7" spans="1:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
-      <c r="S7" s="36"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="54"/>
+      <c r="S7" s="54"/>
     </row>
     <row r="8" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
     </row>
     <row r="9" spans="1:19" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
     </row>
@@ -2124,19 +2348,19 @@
       <c r="B11" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="34" t="s">
+      <c r="D11" s="61"/>
+      <c r="E11" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="42"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="61"/>
       <c r="L11" s="1" t="s">
         <v>6</v>
       </c>
@@ -2149,403 +2373,403 @@
       <c r="O11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P11" s="34" t="s">
+      <c r="P11" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="Q11" s="35"/>
+      <c r="Q11" s="60"/>
       <c r="R11" s="28" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="68" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="60"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="64"/>
-      <c r="M12" s="64"/>
-      <c r="N12" s="64"/>
-      <c r="O12" s="64"/>
-      <c r="P12" s="65"/>
-      <c r="Q12" s="66"/>
-      <c r="R12" s="67"/>
+    <row r="12" spans="1:19" s="35" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="30"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="75"/>
+      <c r="Q12" s="76"/>
+      <c r="R12" s="34"/>
     </row>
     <row r="13" spans="1:19" s="8" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="25"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="56"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="69"/>
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
       <c r="I13" s="19"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
       <c r="L13" s="19"/>
       <c r="M13" s="19"/>
       <c r="N13" s="19"/>
       <c r="O13" s="19"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="31"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="49"/>
       <c r="R13" s="20"/>
     </row>
     <row r="14" spans="1:19" s="8" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="25"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="56"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="69"/>
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
       <c r="I14" s="19"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
       <c r="L14" s="19"/>
       <c r="M14" s="19"/>
       <c r="N14" s="19"/>
       <c r="O14" s="19"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="31"/>
+      <c r="P14" s="48"/>
+      <c r="Q14" s="49"/>
       <c r="R14" s="20"/>
     </row>
     <row r="15" spans="1:19" s="8" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="25"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="56"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="69"/>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
       <c r="I15" s="19"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
       <c r="L15" s="19"/>
       <c r="M15" s="19"/>
       <c r="N15" s="19"/>
       <c r="O15" s="19"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="31"/>
+      <c r="P15" s="48"/>
+      <c r="Q15" s="49"/>
       <c r="R15" s="20"/>
     </row>
     <row r="16" spans="1:19" s="8" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="25"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="56"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="69"/>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
       <c r="I16" s="19"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
       <c r="L16" s="19"/>
       <c r="M16" s="19"/>
       <c r="N16" s="19"/>
       <c r="O16" s="19"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="31"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="49"/>
       <c r="R16" s="20"/>
     </row>
     <row r="17" spans="1:21" s="8" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="25"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="56"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="69"/>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
       <c r="I17" s="19"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
       <c r="L17" s="19"/>
       <c r="M17" s="19"/>
       <c r="N17" s="19"/>
       <c r="O17" s="19"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="31"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="49"/>
       <c r="R17" s="20"/>
     </row>
-    <row r="18" spans="1:21" s="68" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="60"/>
-      <c r="B18" s="69"/>
+    <row r="18" spans="1:21" s="35" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="30"/>
+      <c r="B18" s="36"/>
       <c r="C18" s="70"/>
       <c r="D18" s="70"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="73"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="72"/>
-      <c r="N18" s="72"/>
-      <c r="O18" s="72"/>
-      <c r="P18" s="74"/>
-      <c r="Q18" s="75"/>
-      <c r="R18" s="76"/>
-    </row>
-    <row r="19" spans="1:21" s="68" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="60"/>
-      <c r="B19" s="69"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="71"/>
+      <c r="Q18" s="72"/>
+      <c r="R18" s="39"/>
+    </row>
+    <row r="19" spans="1:21" s="35" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="30"/>
+      <c r="B19" s="36"/>
       <c r="C19" s="70"/>
       <c r="D19" s="70"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="71"/>
-      <c r="I19" s="72"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="73"/>
-      <c r="L19" s="72"/>
-      <c r="M19" s="72"/>
-      <c r="N19" s="72"/>
-      <c r="O19" s="72"/>
-      <c r="P19" s="74"/>
-      <c r="Q19" s="75"/>
-      <c r="R19" s="76"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="71"/>
+      <c r="Q19" s="72"/>
+      <c r="R19" s="39"/>
     </row>
     <row r="20" spans="1:21" s="8" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="25"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="56"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="69"/>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
       <c r="I20" s="19"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
       <c r="L20" s="19"/>
       <c r="M20" s="19"/>
       <c r="N20" s="19"/>
       <c r="O20" s="19"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="31"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="49"/>
       <c r="R20" s="20"/>
     </row>
     <row r="21" spans="1:21" s="8" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="25"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="56"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="69"/>
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
       <c r="H21" s="18"/>
       <c r="I21" s="19"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
       <c r="L21" s="19"/>
       <c r="M21" s="19"/>
       <c r="N21" s="19"/>
       <c r="O21" s="19"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="31"/>
+      <c r="P21" s="48"/>
+      <c r="Q21" s="49"/>
       <c r="R21" s="20"/>
     </row>
     <row r="22" spans="1:21" s="8" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="25"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="56"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="69"/>
       <c r="E22" s="18"/>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
       <c r="H22" s="18"/>
       <c r="I22" s="19"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
       <c r="L22" s="19"/>
       <c r="M22" s="19"/>
       <c r="N22" s="19"/>
       <c r="O22" s="19"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="31"/>
+      <c r="P22" s="48"/>
+      <c r="Q22" s="49"/>
       <c r="R22" s="20"/>
     </row>
     <row r="23" spans="1:21" s="8" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="25"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="56"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="69"/>
       <c r="E23" s="18"/>
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
       <c r="H23" s="18"/>
       <c r="I23" s="18"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
       <c r="L23" s="19"/>
       <c r="M23" s="19"/>
       <c r="N23" s="19"/>
       <c r="O23" s="19"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="31"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="49"/>
       <c r="R23" s="20"/>
     </row>
     <row r="24" spans="1:21" s="8" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="25"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="56"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="69"/>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
       <c r="H24" s="18"/>
       <c r="I24" s="19"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
       <c r="L24" s="19"/>
       <c r="M24" s="19"/>
       <c r="N24" s="19"/>
       <c r="O24" s="19"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="31"/>
+      <c r="P24" s="48"/>
+      <c r="Q24" s="49"/>
       <c r="R24" s="20"/>
     </row>
-    <row r="25" spans="1:21" s="68" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="60"/>
-      <c r="B25" s="69"/>
+    <row r="25" spans="1:21" s="35" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="30"/>
+      <c r="B25" s="36"/>
       <c r="C25" s="70"/>
       <c r="D25" s="70"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="72"/>
-      <c r="M25" s="72"/>
-      <c r="N25" s="72"/>
-      <c r="O25" s="72"/>
-      <c r="P25" s="74"/>
-      <c r="Q25" s="75"/>
-      <c r="R25" s="76"/>
-    </row>
-    <row r="26" spans="1:21" s="68" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="60"/>
-      <c r="B26" s="69"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="71"/>
+      <c r="Q25" s="72"/>
+      <c r="R25" s="39"/>
+    </row>
+    <row r="26" spans="1:21" s="35" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="30"/>
+      <c r="B26" s="36"/>
       <c r="C26" s="70"/>
       <c r="D26" s="70"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="72"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="73"/>
-      <c r="L26" s="72"/>
-      <c r="M26" s="72"/>
-      <c r="N26" s="72"/>
-      <c r="O26" s="72"/>
-      <c r="P26" s="74"/>
-      <c r="Q26" s="75"/>
-      <c r="R26" s="76"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="66"/>
+      <c r="K26" s="66"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="71"/>
+      <c r="Q26" s="72"/>
+      <c r="R26" s="39"/>
     </row>
     <row r="27" spans="1:21" s="8" customFormat="1" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
       <c r="B27" s="26"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="58"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="68"/>
       <c r="E27" s="21"/>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
       <c r="I27" s="22"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="48"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
       <c r="L27" s="22"/>
       <c r="M27" s="22"/>
       <c r="N27" s="22"/>
       <c r="O27" s="22"/>
-      <c r="P27" s="32"/>
-      <c r="Q27" s="33"/>
+      <c r="P27" s="64"/>
+      <c r="Q27" s="65"/>
       <c r="R27" s="23"/>
     </row>
     <row r="29" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
-      <c r="B29" s="54" t="s">
+      <c r="B29" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="54"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="45"/>
       <c r="J29" s="10"/>
-      <c r="K29" s="53" t="s">
+      <c r="K29" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="L29" s="53"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="53"/>
-      <c r="O29" s="53"/>
-      <c r="P29" s="53"/>
-      <c r="Q29" s="53"/>
-      <c r="R29" s="53"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="44"/>
+      <c r="O29" s="44"/>
+      <c r="P29" s="44"/>
+      <c r="Q29" s="44"/>
+      <c r="R29" s="44"/>
       <c r="S29" s="9"/>
       <c r="T29" s="9"/>
       <c r="U29" s="9"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
-      <c r="B30" s="54"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="54"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
       <c r="J30" s="10"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="53"/>
-      <c r="O30" s="53"/>
-      <c r="P30" s="53"/>
-      <c r="Q30" s="53"/>
-      <c r="R30" s="53"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="44"/>
+      <c r="M30" s="44"/>
+      <c r="N30" s="44"/>
+      <c r="O30" s="44"/>
+      <c r="P30" s="44"/>
+      <c r="Q30" s="44"/>
+      <c r="R30" s="44"/>
       <c r="S30" s="9"/>
       <c r="T30" s="9"/>
       <c r="U30" s="9"/>
     </row>
     <row r="31" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
-      <c r="B31" s="54"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="54"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
       <c r="J31" s="10"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="53"/>
-      <c r="O31" s="53"/>
-      <c r="P31" s="53"/>
-      <c r="Q31" s="53"/>
-      <c r="R31" s="53"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="44"/>
+      <c r="M31" s="44"/>
+      <c r="N31" s="44"/>
+      <c r="O31" s="44"/>
+      <c r="P31" s="44"/>
+      <c r="Q31" s="44"/>
+      <c r="R31" s="44"/>
       <c r="S31" s="9"/>
       <c r="T31" s="9"/>
       <c r="U31" s="9"/>
@@ -2553,23 +2777,23 @@
     <row r="34" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="27"/>
       <c r="C34" s="27"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="53"/>
       <c r="H34" s="27"/>
       <c r="I34" s="27"/>
       <c r="J34" s="3"/>
-      <c r="K34" s="47" t="s">
+      <c r="K34" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="L34" s="47"/>
-      <c r="M34" s="47"/>
-      <c r="N34" s="47"/>
-      <c r="O34" s="47"/>
-      <c r="P34" s="47"/>
-      <c r="Q34" s="47"/>
-      <c r="R34" s="47"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="40"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="40"/>
       <c r="S34" s="11"/>
       <c r="T34" s="11"/>
     </row>
@@ -2585,16 +2809,16 @@
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="2"/>
-      <c r="K35" s="51" t="s">
+      <c r="K35" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="L35" s="51"/>
-      <c r="M35" s="51"/>
-      <c r="N35" s="51"/>
-      <c r="O35" s="51"/>
-      <c r="P35" s="51"/>
-      <c r="Q35" s="51"/>
-      <c r="R35" s="51"/>
+      <c r="L35" s="41"/>
+      <c r="M35" s="41"/>
+      <c r="N35" s="41"/>
+      <c r="O35" s="41"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="41"/>
       <c r="S35" s="4"/>
       <c r="T35" s="4"/>
     </row>
@@ -2650,16 +2874,16 @@
       <c r="H38" s="13"/>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
-      <c r="K38" s="53" t="s">
+      <c r="K38" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="L38" s="53"/>
-      <c r="M38" s="53"/>
-      <c r="N38" s="53"/>
-      <c r="O38" s="53"/>
-      <c r="P38" s="53"/>
-      <c r="Q38" s="53"/>
-      <c r="R38" s="53"/>
+      <c r="L38" s="44"/>
+      <c r="M38" s="44"/>
+      <c r="N38" s="44"/>
+      <c r="O38" s="44"/>
+      <c r="P38" s="44"/>
+      <c r="Q38" s="44"/>
+      <c r="R38" s="44"/>
     </row>
     <row r="39" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
@@ -2670,105 +2894,155 @@
       <c r="F39" s="13"/>
       <c r="G39" s="13"/>
       <c r="H39" s="13"/>
-      <c r="K39" s="53"/>
-      <c r="L39" s="53"/>
-      <c r="M39" s="53"/>
-      <c r="N39" s="53"/>
-      <c r="O39" s="53"/>
-      <c r="P39" s="53"/>
-      <c r="Q39" s="53"/>
-      <c r="R39" s="53"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="44"/>
+      <c r="M39" s="44"/>
+      <c r="N39" s="44"/>
+      <c r="O39" s="44"/>
+      <c r="P39" s="44"/>
+      <c r="Q39" s="44"/>
+      <c r="R39" s="44"/>
     </row>
     <row r="42" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="47" t="s">
+      <c r="B42" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C42" s="47"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="47"/>
-      <c r="H42" s="47"/>
-      <c r="I42" s="47"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="40"/>
+      <c r="I42" s="40"/>
       <c r="J42" s="12"/>
-      <c r="K42" s="47" t="s">
+      <c r="K42" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="L42" s="47"/>
-      <c r="M42" s="47"/>
-      <c r="N42" s="47"/>
-      <c r="O42" s="47"/>
-      <c r="P42" s="47"/>
-      <c r="Q42" s="47"/>
-      <c r="R42" s="47"/>
+      <c r="L42" s="40"/>
+      <c r="M42" s="40"/>
+      <c r="N42" s="40"/>
+      <c r="O42" s="40"/>
+      <c r="P42" s="40"/>
+      <c r="Q42" s="40"/>
+      <c r="R42" s="40"/>
     </row>
     <row r="43" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="51" t="s">
+      <c r="B43" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="51"/>
-      <c r="F43" s="51"/>
-      <c r="G43" s="51"/>
-      <c r="H43" s="51"/>
-      <c r="I43" s="51"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="41"/>
       <c r="J43" s="2"/>
-      <c r="K43" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="L43" s="51"/>
-      <c r="M43" s="51"/>
-      <c r="N43" s="51"/>
-      <c r="O43" s="51"/>
-      <c r="P43" s="51"/>
-      <c r="Q43" s="51"/>
-      <c r="R43" s="51"/>
+      <c r="K43" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="L43" s="41"/>
+      <c r="M43" s="41"/>
+      <c r="N43" s="41"/>
+      <c r="O43" s="41"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="41"/>
     </row>
     <row r="45" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="B45" s="52"/>
-      <c r="C45" s="52"/>
-      <c r="D45" s="52"/>
-      <c r="E45" s="52"/>
-      <c r="F45" s="52"/>
-      <c r="G45" s="52"/>
-      <c r="H45" s="52"/>
-      <c r="I45" s="52"/>
-      <c r="J45" s="52"/>
-      <c r="K45" s="52"/>
-      <c r="L45" s="52"/>
-      <c r="M45" s="52"/>
-      <c r="N45" s="52"/>
-      <c r="O45" s="52"/>
-      <c r="P45" s="52"/>
-      <c r="Q45" s="52"/>
-      <c r="R45" s="52"/>
+      <c r="A45" s="43"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="43"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="43"/>
+      <c r="K45" s="43"/>
+      <c r="L45" s="43"/>
+      <c r="M45" s="43"/>
+      <c r="N45" s="43"/>
+      <c r="O45" s="43"/>
+      <c r="P45" s="43"/>
+      <c r="Q45" s="43"/>
+      <c r="R45" s="43"/>
     </row>
     <row r="46" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="52"/>
-      <c r="B46" s="52"/>
-      <c r="C46" s="52"/>
-      <c r="D46" s="52"/>
-      <c r="E46" s="52"/>
-      <c r="F46" s="52"/>
-      <c r="G46" s="52"/>
-      <c r="H46" s="52"/>
-      <c r="I46" s="52"/>
-      <c r="J46" s="52"/>
-      <c r="K46" s="52"/>
-      <c r="L46" s="52"/>
-      <c r="M46" s="52"/>
-      <c r="N46" s="52"/>
-      <c r="O46" s="52"/>
-      <c r="P46" s="52"/>
-      <c r="Q46" s="52"/>
-      <c r="R46" s="52"/>
+      <c r="A46" s="43"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="43"/>
+      <c r="I46" s="43"/>
+      <c r="J46" s="43"/>
+      <c r="K46" s="43"/>
+      <c r="L46" s="43"/>
+      <c r="M46" s="43"/>
+      <c r="N46" s="43"/>
+      <c r="O46" s="43"/>
+      <c r="P46" s="43"/>
+      <c r="Q46" s="43"/>
+      <c r="R46" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="68">
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="A7:S7"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D8:L8"/>
+    <mergeCell ref="D9:L9"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="E11:K11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="K34:R34"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="D35:G35"/>
     <mergeCell ref="K42:R42"/>
     <mergeCell ref="K43:R43"/>
     <mergeCell ref="J24:K24"/>
@@ -2785,67 +3059,11 @@
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="K35:R35"/>
     <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="K34:R34"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="A7:S7"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D8:L8"/>
-    <mergeCell ref="D9:L9"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="E11:K11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P19:Q19"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="66" orientation="landscape" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;L&amp;G
-&amp;"Cambria,Italic"NIA-PIMO-AFS-ADM-INT-Form08 Rev.08&amp;R&amp;G</oddFooter>
-  </headerFooter>
   <drawing r:id="rId2"/>
   <legacyDrawingHF r:id="rId3"/>
 </worksheet>
